--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-03.xlsx
@@ -86,12 +86,12 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -104,6 +104,12 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
     <t>2:4</t>
   </si>
   <si>
+    <t>LAGAR 15 ML DROPS</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -380,6 +389,9 @@
     <t xml:space="preserve">URINEX 36 CAP </t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -441,6 +453,9 @@
   </si>
   <si>
     <t>176:0</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 2</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1263,17 +1278,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1281,7 +1296,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1289,7 +1304,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1399,11 +1414,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>86</v>
+        <v>118.8</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1419,17 +1434,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1437,7 +1452,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1445,17 +1460,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1463,7 +1478,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1471,13 +1486,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1497,17 +1512,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1515,7 +1530,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1523,17 +1538,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1541,7 +1556,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1549,17 +1564,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1567,7 +1582,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1575,17 +1590,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1601,17 +1616,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1619,7 +1634,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1627,17 +1642,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1659,11 +1674,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1679,17 +1694,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1697,7 +1712,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1705,17 +1720,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1723,7 +1738,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1731,17 +1746,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1749,7 +1764,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1757,17 +1772,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1775,7 +1790,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1783,13 +1798,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1815,11 +1830,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1827,7 +1842,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1835,17 +1850,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1853,7 +1868,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1861,17 +1876,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1887,13 +1902,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1905,7 +1920,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1913,13 +1928,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1931,7 +1946,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1945,7 +1960,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1957,7 +1972,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1965,17 +1980,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1983,7 +1998,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1991,17 +2006,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2023,11 +2038,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2043,17 +2058,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2061,7 +2076,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2069,13 +2084,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2087,7 +2102,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2095,17 +2110,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>55.670000000000002</v>
+        <v>69</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2113,7 +2128,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2121,17 +2136,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2139,7 +2154,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2147,13 +2162,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2173,13 +2188,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2191,7 +2206,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2199,17 +2214,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2217,7 +2232,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2225,17 +2240,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>15.300000000000001</v>
+        <v>56</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2243,7 +2258,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2257,7 +2272,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2269,7 +2284,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2277,13 +2292,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>85.560000000000002</v>
+        <v>65</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2295,7 +2310,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2303,13 +2318,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2321,7 +2336,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2329,13 +2344,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>50.960000000000001</v>
+        <v>39</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2347,7 +2362,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2355,13 +2370,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>65</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2373,7 +2388,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2381,17 +2396,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2413,11 +2428,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2433,17 +2448,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>27.329999999999998</v>
+        <v>70</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2459,17 +2474,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2477,7 +2492,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2485,17 +2500,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>277.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2503,7 +2518,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2511,17 +2526,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2529,7 +2544,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2537,13 +2552,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2555,7 +2570,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2563,7 +2578,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2581,7 +2596,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2589,13 +2604,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2607,7 +2622,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2621,7 +2636,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2633,7 +2648,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2641,17 +2656,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2667,17 +2682,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2693,17 +2708,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2711,7 +2726,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2719,17 +2734,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2737,7 +2752,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2745,17 +2760,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2771,13 +2786,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2797,17 +2812,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2815,7 +2830,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2823,13 +2838,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2841,7 +2856,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2849,17 +2864,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2875,17 +2890,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2901,7 +2916,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -2919,7 +2934,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2927,17 +2942,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2945,7 +2960,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2953,17 +2968,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2971,7 +2986,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2979,17 +2994,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3005,17 +3020,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3031,17 +3046,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3057,13 +3072,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3075,7 +3090,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3083,13 +3098,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>65.75</v>
+        <v>30</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3101,7 +3116,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3109,17 +3124,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3127,7 +3142,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3141,7 +3156,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3153,7 +3168,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3161,17 +3176,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>249.47999999999999</v>
+        <v>15</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3179,7 +3194,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3187,7 +3202,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -3197,7 +3212,7 @@
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3219,7 +3234,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>59</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3239,17 +3254,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3257,7 +3272,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3265,17 +3280,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3283,7 +3298,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3291,17 +3306,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3309,7 +3324,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3317,17 +3332,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3335,7 +3350,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3343,17 +3358,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3361,7 +3376,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3369,17 +3384,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3387,7 +3402,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3395,13 +3410,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3413,7 +3428,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3421,17 +3436,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>9.9499999999999993</v>
+        <v>90</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3447,17 +3462,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3473,17 +3488,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3499,17 +3514,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>31</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3517,7 +3532,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3525,13 +3540,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3543,7 +3558,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3551,17 +3566,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>58.200000000000003</v>
+        <v>224</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3577,17 +3592,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3603,17 +3618,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3621,7 +3636,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3629,17 +3644,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>16</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3647,7 +3662,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3655,13 +3670,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3673,7 +3688,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3681,17 +3696,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3699,7 +3714,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3707,17 +3722,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3725,7 +3740,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3733,13 +3748,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3759,13 +3774,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3791,7 +3806,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3811,13 +3826,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>9.5</v>
+        <v>70</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3829,7 +3844,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3837,13 +3852,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3855,7 +3870,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3863,13 +3878,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>19.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3881,7 +3896,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3889,7 +3904,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -3915,13 +3930,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3933,7 +3948,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3941,13 +3956,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3959,7 +3974,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3967,13 +3982,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3985,7 +4000,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3993,51 +4008,155 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="117" ht="26.25" customHeight="1">
-      <c r="K117" s="10">
-        <v>6794.3000000000002</v>
-      </c>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="11">
-        <v>160</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c t="s" r="F118" s="12">
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>114</v>
+      </c>
+      <c t="s" r="B117" s="7">
         <v>161</v>
       </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="13"/>
-      <c t="s" r="I118" s="14">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c t="s" r="H117" s="8">
+        <v>122</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>8</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c t="s" r="N117" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
         <v>162</v>
       </c>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
+        <v>43</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>40</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c t="s" r="N118" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" ht="24.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>116</v>
+      </c>
+      <c t="s" r="B119" s="7">
+        <v>163</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c t="s" r="H119" s="8">
+        <v>8</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="9">
+        <v>20</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c t="s" r="N119" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
+        <v>164</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>66</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>30</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="K121" s="10">
+        <v>7507.1000000000004</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="11">
+        <v>165</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c t="s" r="F122" s="12">
+        <v>166</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="13"/>
+      <c t="s" r="I122" s="14">
+        <v>167</v>
+      </c>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="350">
+  <mergeCells count="362">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4384,10 +4503,22 @@
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="I118:N118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:N122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
